--- a/medicine/Enfance/Cabane_de_couvertures/Cabane_de_couvertures.xlsx
+++ b/medicine/Enfance/Cabane_de_couvertures/Cabane_de_couvertures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une cabane de couvertures et de chaises est un type de cabane parfois construite par les enfants dans leur chambre à coucher. Ces cabanes sont constituées de plusieurs chaises, qui constituent les éléments porteurs, et de couvertures que l'on pose sur les chaises. L'accès à la cabane se fait en position accroupie ou à quatre pattes.
 La cabane a les usages variés d'une cabane pour enfant : on peut par exemple y boire un verre de lait à l'abri des regards ou converser avec ses nounours ou ses poupées dans un volume adapté à leur taille.
@@ -513,7 +525,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Blanket fort » (voir la liste des auteurs).</t>
         </is>
